--- a/ReactJs.xlsx
+++ b/ReactJs.xlsx
@@ -16,19 +16,40 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>https://www.youtube.com/watch?v=fx-_n26guiU&amp;list=PLkY6Xj8Sg8-vV5kALCOT0LShKc6mVFBvW&amp;index=5</t>
   </si>
   <si>
     <t>https://o7planning.org/vi/12151/bat-dau-nhanh-voi-react-tren-moi-truong-nodejs</t>
+  </si>
+  <si>
+    <t>I. Khái niệm NodeJs là gì??</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I. Basic </t>
+  </si>
+  <si>
+    <t>- Để tạo và chạy một trang Web đầy đủ tính năng thường cần một hệ thống gồm:</t>
+  </si>
+  <si>
+    <t>+) Máy vật lý chứa hệ điều hành (Windows Hoặc Linux)</t>
+  </si>
+  <si>
+    <t>+) Cài đặt môi trường runtime (Phần mềm web server Apache, NodeJS,….)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+) PHP engine - chương trình phần tích cú pháp PHP và thực thi code PHP. Với NodeJs thì cài đặt môi trường đã bao gồm phần chương trình biên dịch code js </t>
+  </si>
+  <si>
+    <t>+) Một máy chủ hệ quản trị cơ sở dữ liệu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -43,6 +64,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -66,9 +100,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -411,23 +448,62 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="2"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B11" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/ReactJs.xlsx
+++ b/ReactJs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>https://www.youtube.com/watch?v=fx-_n26guiU&amp;list=PLkY6Xj8Sg8-vV5kALCOT0LShKc6mVFBvW&amp;index=5</t>
   </si>
@@ -43,6 +43,45 @@
   </si>
   <si>
     <t>+) Một máy chủ hệ quản trị cơ sở dữ liệu</t>
+  </si>
+  <si>
+    <t>https://techtalk.vn/tai-sao-nodejs-chay-nhanh-hon-apache.html</t>
+  </si>
+  <si>
+    <t>- runtime (run-time system : phần mềm được thiết kế để chạy các chương trình máy tính với một hoặc nhiều ngôn ngữ xác định )</t>
+  </si>
+  <si>
+    <t>+) Phầm mềm Web Server, môi trường runtime  (Phần mềm web server Apache, NodeJS,….)</t>
+  </si>
+  <si>
+    <t>- NodeJS đã bao gồm chương trình phân tích và thực thi code JS</t>
+  </si>
+  <si>
+    <t>- Nodejs là một runtime (run-time system : phần mềm được thiết kế để chạy các chương trình máy tính với một hoặc nhiều ngôn ngữ xác định )</t>
+  </si>
+  <si>
+    <t>Nó được xây dựng trên nền V8 javascript engine – cỗ máy thực thi mã javascript của trình duyệt nổi tiếng Chrome</t>
+  </si>
+  <si>
+    <t>Đơn giản hơn, Nodejs giúp server của chúng ta có thể được viết bằng javascript.</t>
+  </si>
+  <si>
+    <t>- Khi nói đến NodeJS thì phải nghĩ tới vấn đề Realtime.</t>
+  </si>
+  <si>
+    <t>Realtime ở đây chính là xử lý giao tiếp từ client tới máy chủ theo thời gian thực.</t>
+  </si>
+  <si>
+    <t>Giống như khi bạn lướt Facebook thì mỗi khi bạn nhắn tin cho người nào đó thì ngay lập tức người nhận sẽ nhận được thông báo tin nhắn của bạn.</t>
+  </si>
+  <si>
+    <t>Nếu ban nghĩ Facebook đang sử dụng Ajax thì bạn đã sai rồi nhé, nếu họ sử dụng Ajax thì Server họ sẽ chết ngay lập tức bởi facebook có số lượng request mỗi giây là rất lớn.</t>
+  </si>
+  <si>
+    <t>-NodeJS có thể chạy trên nhiều nền tảng hệ điều hành khác nhau từ WIndow cho tới Linux, OS X nên đó cũng là một lợi thế.</t>
+  </si>
+  <si>
+    <t>NodeJS cung cấp các thư viện phong phú ở dạng Javascript Module khác nhau giúp đơn giản hóa việc lập trình và giảm thời gian ở mức thấp nhất.</t>
   </si>
 </sst>
 </file>
@@ -79,12 +118,18 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -100,12 +145,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -448,10 +495,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -459,51 +506,127 @@
     <col min="1" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C6" s="3" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="4" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B11" r:id="rId1"/>
+    <hyperlink ref="B12" r:id="rId1"/>
+    <hyperlink ref="B13" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>